--- a/云产业企业名录.xlsx
+++ b/云产业企业名录.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="云产业公司名目" sheetId="1" r:id="rId1"/>
+    <sheet name="创投公司名录" sheetId="2" r:id="rId2"/>
+    <sheet name="科技投资网站目录" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
   <si>
     <t>企业名录</t>
   </si>
@@ -136,13 +138,88 @@
   </si>
   <si>
     <t>刚上市</t>
+  </si>
+  <si>
+    <t>http://36kr.com/p/532677.html</t>
+  </si>
+  <si>
+    <t>tropo</t>
+  </si>
+  <si>
+    <t>被收购</t>
+  </si>
+  <si>
+    <t>http://36kr.com/p/201968.html</t>
+  </si>
+  <si>
+    <t>云通讯</t>
+  </si>
+  <si>
+    <t>Nexmo</t>
+  </si>
+  <si>
+    <t>http://36kr.com/p/201476.html</t>
+  </si>
+  <si>
+    <t>VC Exper</t>
+  </si>
+  <si>
+    <t>privo</t>
+  </si>
+  <si>
+    <t>http://36kr.com/p/177397.html</t>
+  </si>
+  <si>
+    <t>YippieMove</t>
+  </si>
+  <si>
+    <t>http://36kr.com/p/81614.html</t>
+  </si>
+  <si>
+    <t>SendHub</t>
+  </si>
+  <si>
+    <t>http://36kr.com/p/104025.html</t>
+  </si>
+  <si>
+    <t>旧金山</t>
+  </si>
+  <si>
+    <t>Techcrunch</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/</t>
+  </si>
+  <si>
+    <t>Dave McClure</t>
+  </si>
+  <si>
+    <t>Chris Sacca</t>
+  </si>
+  <si>
+    <t>Founders Fund</t>
+  </si>
+  <si>
+    <t>Manu Kumar</t>
+  </si>
+  <si>
+    <t>Union Square Ventures</t>
+  </si>
+  <si>
+    <t>http://thecloudfactory.io/</t>
+  </si>
+  <si>
+    <t>SoftTech VC</t>
+  </si>
+  <si>
+    <t>Class V Group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -162,6 +239,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF999999"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="2">
@@ -184,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -193,6 +280,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -816,8 +905,68 @@
       <c r="E15" t="s">
         <v>24</v>
       </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
       <c r="G15" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -829,14 +978,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>"综合,多媒体,云通信,云安全,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D42:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D44:D1048576">
       <formula1>"行业巨头,大公司,初创,A轮,B轮,C轮,D轮,小公司,其他"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"美国,中国,欧洲,以色列,印度,日本,韩国,新加坡,澳洲,俄罗斯,东南亚"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D41">
-      <formula1>"行业巨头,大公司,初创,A轮,B轮,C轮,D轮,E轮,F轮,刚上市,小公司,其他"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D43">
+      <formula1>"行业巨头,大公司,初创,A轮,B轮,C轮,D轮,E轮,F轮,刚上市,被收购,小公司,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -847,4 +996,104 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="20">
+      <c r="A7" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="20">
+      <c r="A8" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/云产业企业名录.xlsx
+++ b/云产业企业名录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="云产业公司名目" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
   <si>
     <t>企业名录</t>
   </si>
@@ -213,13 +213,257 @@
   </si>
   <si>
     <t>Class V Group</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>官网：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.twilio.com/
+IPO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://36kr.com/p/5048142.html
+E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>轮融资：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://36kr.com/p/532568.html
+D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>轮融资：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://36kr.com/p/203887.html?utm_source=site_search
+B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>轮融资：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">http://36kr.com/p/6687.html
+Twilio </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">google GAE: http://36kr.com/p/202334.html
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>国内类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">twilio pass </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>行业的思考：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">http://36kr.com/p/5049072.html
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>创始人及团队：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://tech.qq.com/a/20130611/000018.htm
+IPO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>后投资者反应：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">http://tech.qq.com/a/20160630/004530.htm
+Twilio </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>未来的风险：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://weijin.baijia.baidu.com/article/534298</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.itbear.com.cn/</t>
+  </si>
+  <si>
+    <t>http://www.cyzone.cn/</t>
+  </si>
+  <si>
+    <t>http://www.iheima.com/</t>
+  </si>
+  <si>
+    <t>http://www.pingwest.com/</t>
+  </si>
+  <si>
+    <t>http://tech2ipo.com/</t>
+  </si>
+  <si>
+    <t>Stripe</t>
+  </si>
+  <si>
+    <t>Y Combinator</t>
+  </si>
+  <si>
+    <t> Asterisk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -250,6 +494,22 @@
       <color rgb="FF333333"/>
       <name val="Tahoma"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Libian SC Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF3D464D"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -271,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -282,6 +542,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -628,7 +890,7 @@
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="8" width="26.83203125" customWidth="1"/>
-    <col min="9" max="9" width="51.83203125" customWidth="1"/>
+    <col min="9" max="9" width="64.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -656,7 +918,7 @@
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -867,7 +1129,6 @@
         <v>26</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="60">
       <c r="A14" s="1" t="s">
@@ -889,7 +1150,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="180">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -910,6 +1171,9 @@
       </c>
       <c r="G15" t="s">
         <v>35</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -925,7 +1189,7 @@
       <c r="D16" t="s">
         <v>40</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -933,7 +1197,7 @@
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -941,7 +1205,7 @@
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -949,7 +1213,7 @@
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -957,7 +1221,7 @@
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -965,8 +1229,18 @@
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="3" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18">
+      <c r="A22" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="21">
+      <c r="A23" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1000,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1049,6 +1323,11 @@
     <row r="8" spans="1:1" ht="20">
       <c r="A8" s="5" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21">
+      <c r="A10" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1063,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1088,6 +1367,41 @@
         <v>60</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/云产业企业名录.xlsx
+++ b/云产业企业名录.xlsx
@@ -167,9 +167,6 @@
     <t>privo</t>
   </si>
   <si>
-    <t>http://36kr.com/p/177397.html</t>
-  </si>
-  <si>
     <t>YippieMove</t>
   </si>
   <si>
@@ -457,6 +454,13 @@
   </si>
   <si>
     <t> Asterisk</t>
+  </si>
+  <si>
+    <t>plivo 官网：http://www.plivo.com/
+plivo 发展时间演进：http://www.plivo.com/about/
+plivo 产品服务价格： http://www.plivo.com/pricing/
+plivo 种子轮：http://www.cyzone.cn/a/20121205/236314.html
+plivo github repos: https://github.com/plivo</t>
   </si>
 </sst>
 </file>
@@ -878,7 +882,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1167,13 +1171,13 @@
         <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1209,38 +1213,38 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="75">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18">
       <c r="A22" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="21">
       <c r="A23" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1292,42 +1296,42 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="20">
       <c r="A7" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="20">
       <c r="A8" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
       <c r="A10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1356,50 +1360,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/云产业企业名录.xlsx
+++ b/云产业企业名录.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
   <si>
     <t>企业名录</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>刚上市</t>
-  </si>
-  <si>
-    <t>http://36kr.com/p/532677.html</t>
   </si>
   <si>
     <t>tropo</t>
@@ -461,6 +458,17 @@
 plivo 产品服务价格： http://www.plivo.com/pricing/
 plivo 种子轮：http://www.cyzone.cn/a/20121205/236314.html
 plivo github repos: https://github.com/plivo</t>
+  </si>
+  <si>
+    <t>https://www.tropo.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tropo 官网：https://www.tropo.com/
+Tropo 产品收费：https://www.tropo.com/pricing/
+Cisco Spark：https://www.ciscospark.com/
+思科收购Tropo: http://36kr.com/p/532698.html
+华为与Tropo的合作：http://www.csdn.net/article/2014-02-25/2818529-Tropo-and-Huawei-partner-to-deploy-Tropo-API-on-China-Telecom
+</t>
   </si>
 </sst>
 </file>
@@ -881,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -1171,18 +1179,18 @@
         <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="135">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
@@ -1191,60 +1199,66 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>71</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="75">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18">
       <c r="A22" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="21">
       <c r="A23" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1291,47 +1305,47 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="20">
       <c r="A7" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="20">
       <c r="A8" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
       <c r="A10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1360,50 +1374,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/云产业企业名录.xlsx
+++ b/云产业企业名录.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="82">
   <si>
     <t>企业名录</t>
   </si>
@@ -167,9 +167,6 @@
     <t>YippieMove</t>
   </si>
   <si>
-    <t>http://36kr.com/p/81614.html</t>
-  </si>
-  <si>
     <t>SendHub</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
   </si>
   <si>
     <t>Y Combinator</t>
-  </si>
-  <si>
-    <t> Asterisk</t>
   </si>
   <si>
     <t>plivo 官网：http://www.plivo.com/
@@ -469,6 +463,56 @@
 思科收购Tropo: http://36kr.com/p/532698.html
 华为与Tropo的合作：http://www.csdn.net/article/2014-02-25/2818529-Tropo-and-Huawei-partner-to-deploy-Tropo-API-on-China-Telecom
 </t>
+  </si>
+  <si>
+    <t>FreeSwitch</t>
+  </si>
+  <si>
+    <t>https://freeswitch.org/</t>
+  </si>
+  <si>
+    <t>通信平台技术组织</t>
+  </si>
+  <si>
+    <t>Asterisk</t>
+  </si>
+  <si>
+    <t>http://www.asterisk.org/</t>
+  </si>
+  <si>
+    <t>通信平台技术组织,
+Asterisk 开源替代方案</t>
+  </si>
+  <si>
+    <t>https://www.yippiemove.com/</t>
+  </si>
+  <si>
+    <t>初创</t>
+  </si>
+  <si>
+    <t>邮件转移API服务</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Viktor Petersson </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对自己邮件转移的需求开发产品，
+转向为企业提供邮件转移API 服务，
+按需收费。产品单一，
+未来需要拓展业务和服务场景</t>
+    </r>
+  </si>
+  <si>
+    <t>http://36kr.com/p/81614.html
+产品服务价格：https://www.yippiemove.com/buy_credits/</t>
   </si>
 </sst>
 </file>
@@ -887,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -900,7 +944,7 @@
     <col min="3" max="3" width="9.83203125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
     <col min="7" max="8" width="26.83203125" customWidth="1"/>
     <col min="9" max="9" width="64.6640625" style="3" customWidth="1"/>
   </cols>
@@ -1179,13 +1223,13 @@
         <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="135">
@@ -1205,10 +1249,10 @@
         <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1232,33 +1276,98 @@
         <v>45</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="120">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="I20" s="3" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18">
       <c r="A22" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="21">
-      <c r="A23" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="24" customHeight="1">
+      <c r="A23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" ht="30">
+      <c r="A24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1310,42 +1419,42 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="20">
       <c r="A7" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="20">
       <c r="A8" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
       <c r="A10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1374,50 +1483,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/云产业企业名录.xlsx
+++ b/云产业企业名录.xlsx
@@ -10,6 +10,7 @@
     <sheet name="云产业公司名目" sheetId="1" r:id="rId1"/>
     <sheet name="创投公司名录" sheetId="2" r:id="rId2"/>
     <sheet name="科技投资网站目录" sheetId="3" r:id="rId3"/>
+    <sheet name="其他待研究公司名录" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="86">
   <si>
     <t>企业名录</t>
   </si>
@@ -153,9 +154,6 @@
   </si>
   <si>
     <t>Nexmo</t>
-  </si>
-  <si>
-    <t>http://36kr.com/p/201476.html</t>
   </si>
   <si>
     <t>VC Exper</t>
@@ -513,6 +511,28 @@
   <si>
     <t>http://36kr.com/p/81614.html
 产品服务价格：https://www.yippiemove.com/buy_credits/</t>
+  </si>
+  <si>
+    <t>Clever</t>
+  </si>
+  <si>
+    <t>http://www.prnewswire.com/</t>
+  </si>
+  <si>
+    <t>http://www.skyworksinc.com/</t>
+  </si>
+  <si>
+    <t>物联网</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nexmo 官网： https://www.nexmo.com/
+Nexmo 创始团队介绍：https://www.nexmo.com/leadership/
+Vonage 收购Nexmo 分析：
+http://www.nojitter.com/post/240171637/vonage-acquires-nexmo-jumps-into-cpaas
+Nexmo 与AWS合作，为AWS的短信息发送平台提供服务http://www.prnewswire.com/news-releases/nexmo-works-with-aws-for-sms-message-delivery-for-simple-notification-service-300298505.html
+Nexmo 为荷兰皇家航空公司客户提供聊天互动服务：
+http://www.prnewswire.com/news-releases/nexmo-powers-klm-communication-on-facebook-messenger-and-wechat-300257038.html
+</t>
   </si>
 </sst>
 </file>
@@ -933,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1223,13 +1243,13 @@
         <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="135">
@@ -1249,10 +1269,10 @@
         <v>24</v>
       </c>
       <c r="G16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1263,25 +1283,25 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="195">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="75">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="120">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
@@ -1290,43 +1310,45 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18">
       <c r="A22" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="24" customHeight="1">
-      <c r="A23" s="7"/>
+      <c r="A23" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="30">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -1341,15 +1363,15 @@
         <v>24</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -1364,10 +1386,10 @@
         <v>24</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1414,47 +1436,47 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="20">
       <c r="A7" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="20">
       <c r="A8" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
       <c r="A10" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1469,64 +1491,100 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="35.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/云产业企业名录.xlsx
+++ b/云产业企业名录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="云产业公司名目" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="90">
   <si>
     <t>企业名录</t>
   </si>
@@ -534,12 +534,24 @@
 http://www.prnewswire.com/news-releases/nexmo-powers-klm-communication-on-facebook-messenger-and-wechat-300257038.html
 </t>
   </si>
+  <si>
+    <t xml:space="preserve"> Genband launched Kandy i</t>
+  </si>
+  <si>
+    <t>Avaya built out Zang.io</t>
+  </si>
+  <si>
+    <t>http://www.idc.com/</t>
+  </si>
+  <si>
+    <t>https://www.idg.com/www/home.nsf/home?readform</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -586,6 +598,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -604,10 +624,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -620,8 +641,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -951,15 +974,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
@@ -1390,6 +1413,16 @@
       </c>
       <c r="G25" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1411,6 +1444,9 @@
       <formula1>"行业巨头,大公司,初创,A轮,B轮,C轮,D轮,E轮,F轮,刚上市,被收购,小公司,其他"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A27" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1491,10 +1527,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1554,6 +1590,16 @@
     <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/云产业企业名录.xlsx
+++ b/云产业企业名录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="云产业公司名目" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="93">
   <si>
     <t>企业名录</t>
   </si>
@@ -545,6 +545,15 @@
   </si>
   <si>
     <t>https://www.idg.com/www/home.nsf/home?readform</t>
+  </si>
+  <si>
+    <t>环信</t>
+  </si>
+  <si>
+    <t>融云</t>
+  </si>
+  <si>
+    <t>野狗</t>
   </si>
 </sst>
 </file>
@@ -974,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1423,6 +1432,21 @@
     <row r="27" spans="1:9">
       <c r="A27" s="8" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1529,7 +1553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>

--- a/云产业企业名录.xlsx
+++ b/云产业企业名录.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18060" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="云产业公司名目" sheetId="1" r:id="rId1"/>
     <sheet name="创投公司名录" sheetId="2" r:id="rId2"/>
     <sheet name="科技投资网站目录" sheetId="3" r:id="rId3"/>
     <sheet name="其他待研究公司名录" sheetId="4" r:id="rId4"/>
+    <sheet name="新名词新理念" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="101">
   <si>
     <t>企业名录</t>
   </si>
@@ -538,9 +539,6 @@
     <t xml:space="preserve"> Genband launched Kandy i</t>
   </si>
   <si>
-    <t>Avaya built out Zang.io</t>
-  </si>
-  <si>
     <t>http://www.idc.com/</t>
   </si>
   <si>
@@ -554,13 +552,68 @@
   </si>
   <si>
     <t>野狗</t>
+  </si>
+  <si>
+    <t>容联云</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Avaya </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>旗下PAAS服务子公司</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.zang.io</t>
+  </si>
+  <si>
+    <t>Avaya Zang.io</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+avaya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从产品提供商到平台提供商的转型布局
+2015年是CPASS的启动年，Zang于2016年成立</t>
+    </r>
+  </si>
+  <si>
+    <t>Zang母公司Avaya：http://www.avaya.com/en/
+Zang产品特性：http://www.zang.io/features
+Zang让Avaya进入平台领域：http://www.nojitter.com/post/240171482/avaya-steps-up-its-platform-game</t>
+  </si>
+  <si>
+    <t>Moxtra</t>
+  </si>
+  <si>
+    <t>Population Health</t>
+  </si>
+  <si>
+    <t>健康医疗</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -598,22 +651,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF3D464D"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="13"/>
+      <color rgb="FF999999"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -633,11 +678,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -650,10 +694,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -983,15 +1025,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
@@ -1368,13 +1410,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="24" customHeight="1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1429,23 +1471,57 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="8" t="s">
-        <v>87</v>
+    <row r="27" spans="1:9" ht="75">
+      <c r="A27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16">
+      <c r="A28" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1469,7 +1545,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A27" r:id="rId1"/>
+    <hyperlink ref="A27" r:id="rId1" display="Avaya built out Zang.io"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1535,7 +1611,7 @@
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1618,12 +1694,12 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1665,4 +1741,35 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/云产业企业名录.xlsx
+++ b/云产业企业名录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18060" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="云产业公司名目" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="科技投资网站目录" sheetId="3" r:id="rId3"/>
     <sheet name="其他待研究公司名录" sheetId="4" r:id="rId4"/>
     <sheet name="新名词新理念" sheetId="5" r:id="rId5"/>
+    <sheet name="创业新方向" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="107">
   <si>
     <t>企业名录</t>
   </si>
@@ -607,6 +608,30 @@
   </si>
   <si>
     <t>健康医疗</t>
+  </si>
+  <si>
+    <t>宝利通</t>
+  </si>
+  <si>
+    <t>保利威视</t>
+  </si>
+  <si>
+    <t>http://www.kandychannel.com/</t>
+  </si>
+  <si>
+    <t>http://www.zdnet.com/article/low-code-coming/</t>
+  </si>
+  <si>
+    <t>精益化--专业化--视频存储API PAAS 公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genband 介绍：http://network.chinabyte.com/380/12207380.shtml
+Kandy 
+Kandy 官网 ：https://www.kandy.io/
+Kandy 所属公司Genband: https://www.genband.com/
+Genbend Fring for Kandy:  www.genband.com/kandyfring
+蜗牛移动使用Kandy的云通信服务：  http://tech.china.com/news/aci/11157258/20150227/19328116.html
+</t>
   </si>
 </sst>
 </file>
@@ -1025,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1466,9 +1491,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" ht="135">
       <c r="A26" s="1" t="s">
         <v>86</v>
+      </c>
+      <c r="G26" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="75">
@@ -1523,6 +1554,16 @@
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1627,10 +1668,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1700,6 +1741,11 @@
     <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1747,7 +1793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1772,4 +1818,32 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="38.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/云产业企业名录.xlsx
+++ b/云产业企业名录.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="111">
   <si>
     <t>企业名录</t>
   </si>
@@ -632,6 +632,18 @@
 Genbend Fring for Kandy:  www.genband.com/kandyfring
 蜗牛移动使用Kandy的云通信服务：  http://tech.china.com/news/aci/11157258/20150227/19328116.html
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">voxeo </t>
+  </si>
+  <si>
+    <t>容联七陌</t>
+  </si>
+  <si>
+    <t>SAAAS</t>
+  </si>
+  <si>
+    <t>容联云旗下SAAS子公司</t>
   </si>
 </sst>
 </file>
@@ -1050,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1556,14 +1568,39 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/云产业企业名录.xlsx
+++ b/云产业企业名录.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="116">
   <si>
     <t>企业名录</t>
   </si>
@@ -119,19 +119,10 @@
     <t>C轮</t>
   </si>
   <si>
-    <t>容联云通讯</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
     <t>云通信</t>
-  </si>
-  <si>
-    <t>A轮： http://36kr.com/p/207997.html
-B轮： http://36kr.com/p/219006.html
-C轮： http://36kr.com/p/5049046.html
-云通讯综合: http://36kr.com/p/201968.html</t>
   </si>
   <si>
     <t>https://www.twilio.com/</t>
@@ -645,12 +636,43 @@
   <si>
     <t>容联云旗下SAAS子公司</t>
   </si>
+  <si>
+    <t xml:space="preserve">容联七陌：http://www.7moor.com/
+C轮： http://36kr.com/p/5049046.html
+B轮：http://36kr.com/p/219006.html
+澳洲电信投资：http://36kr.com/p/5049281.html
+CEO孙昌勋访谈： http://news.dayoo.com/finance/201607/21/141887_47482758.htm
+钉钉使用容联云：http://www.ah.xinhuanet.com/2015-10/10/c_1116779901.htm
+</t>
+  </si>
+  <si>
+    <t>http://www.yuntongxun.com/</t>
+  </si>
+  <si>
+    <t>云巴</t>
+  </si>
+  <si>
+    <t>阿里悟空</t>
+  </si>
+  <si>
+    <t xml:space="preserve">融云官网： http://www.rongcloud.cn
+融云与金山合作：http://www.ctiforum.com/news/guonei/488828.html
+A轮融资：http://blog.rongcloud.cn/?p=1013
+CEO韩迎关于IM3.0的访谈：http://news.sina.com.cn/o/2014-12-18/110031299782.shtml
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.rongcloud.cn</t>
+  </si>
+  <si>
+    <t>神州泰岳支持的云通讯公司</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -697,6 +719,20 @@
       <color rgb="FF999999"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF3D464D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -715,10 +751,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -731,8 +769,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1062,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1317,35 +1358,41 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="60">
+    <row r="14" spans="1:10" ht="180">
       <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
         <v>33</v>
       </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
       <c r="I14" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="180">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="135">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
         <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
       </c>
       <c r="D15" t="s">
         <v>37</v>
@@ -1353,119 +1400,116 @@
       <c r="E15" t="s">
         <v>24</v>
       </c>
-      <c r="F15" t="s">
-        <v>48</v>
-      </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="135">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:9" ht="195">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="195">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="75">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="75">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="120">
       <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="120">
-      <c r="A20" s="1" t="s">
+      <c r="I20" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="24" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="24" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30">
       <c r="A23" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="30">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -1473,157 +1517,171 @@
       <c r="E24" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="135">
+      <c r="A25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="75">
+      <c r="A26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
         <v>75</v>
       </c>
-      <c r="G24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="135">
-      <c r="A26" s="1" t="s">
-        <v>86</v>
+      <c r="F26" t="s">
+        <v>91</v>
       </c>
       <c r="G26" t="s">
-        <v>103</v>
+        <v>92</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="75">
-      <c r="A27" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="27" spans="1:9" ht="16">
+      <c r="A27" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="90">
+      <c r="A29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
         <v>32</v>
       </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" t="s">
-        <v>94</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="16">
-      <c r="A28" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1" t="s">
-        <v>89</v>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="135">
+      <c r="A31" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="1" t="s">
-        <v>91</v>
+      <c r="G31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>106</v>
+      </c>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="30">
+      <c r="A36" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="30">
+      <c r="A37" s="8" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D40:D1048576">
+      <formula1>"行业巨头,大公司,初创,A轮,B轮,C轮,D轮,小公司,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B31 B32:B1048576">
       <formula1>"综合,IAAS,PASS,SAAAS,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C31 C32:C1048576">
       <formula1>"综合,多媒体,云通信,云安全,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D44:D1048576">
-      <formula1>"行业巨头,大公司,初创,A轮,B轮,C轮,D轮,小公司,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E31 E32:E1048576">
       <formula1>"美国,中国,欧洲,以色列,印度,日本,韩国,新加坡,澳洲,俄罗斯,东南亚"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D31 D32:D39">
       <formula1>"行业巨头,大公司,初创,A轮,B轮,C轮,D轮,E轮,F轮,刚上市,被收购,小公司,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A27" r:id="rId1" display="Avaya built out Zang.io"/>
+    <hyperlink ref="A26" r:id="rId1" display="Avaya built out Zang.io"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1650,47 +1708,47 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="20">
       <c r="A7" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="20">
       <c r="A8" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
       <c r="A10" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1719,70 +1777,70 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1810,10 +1868,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1841,10 +1899,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1872,7 +1930,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/云产业企业名录.xlsx
+++ b/云产业企业名录.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="121">
   <si>
     <t>企业名录</t>
   </si>
@@ -666,6 +666,38 @@
   </si>
   <si>
     <t>神州泰岳支持的云通讯公司</t>
+  </si>
+  <si>
+    <t>B轮</t>
+  </si>
+  <si>
+    <r>
+      <t>PAAS+SAAS,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专注云客服</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">环信官网：http://www.easemob.com/
+环信CEO 访谈：http://www.easemob.com/press/342
+环信荣膺Gartner 2016 Cool Vendor：http://www.easemob.com/press/433
+通过环信SDK触达的用户数达7000万： http://36kr.com/p/216302.html
+A+轮融资：http://36kr.com/p/218913.html
+</t>
+  </si>
+  <si>
+    <t>http://www.easemob.com/</t>
+  </si>
+  <si>
+    <t>成立于2013年</t>
   </si>
 </sst>
 </file>
@@ -1105,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1569,9 +1601,33 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" ht="105">
       <c r="A28" s="1" t="s">
         <v>87</v>
+      </c>
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="90">

--- a/云产业企业名录.xlsx
+++ b/云产业企业名录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="云产业公司名目" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="123">
   <si>
     <t>企业名录</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>VC Exper</t>
-  </si>
-  <si>
-    <t>privo</t>
   </si>
   <si>
     <t>YippieMove</t>
@@ -528,9 +525,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Genband launched Kandy i</t>
-  </si>
-  <si>
     <t>http://www.idc.com/</t>
   </si>
   <si>
@@ -625,9 +619,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">voxeo </t>
-  </si>
-  <si>
     <t>容联七陌</t>
   </si>
   <si>
@@ -699,12 +690,31 @@
   <si>
     <t>成立于2013年</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Genband Kandy.io</t>
+  </si>
+  <si>
+    <t>plivo</t>
+  </si>
+  <si>
+    <t>Google Thread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">野狗官网：https://www.wilddog.com/
+CEO刘之访谈：http://www.cyzone.cn/a/20150810/278535.html
+团队关于野狗早起产品的想法（与后期的对比，产品的发展迭代）http://tech.163.com/14/1103/10/AA4DAGR100094ODU.html
+对标FireBase: http://36kr.com/p/5046069.html
+ </t>
+  </si>
+  <si>
+    <t>https://www.wilddog.com/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -765,6 +775,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF3D464D"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -788,7 +805,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -802,6 +819,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -1137,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1407,13 +1426,13 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
         <v>33</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="135">
@@ -1433,10 +1452,10 @@
         <v>24</v>
       </c>
       <c r="G15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1452,20 +1471,20 @@
         <v>40</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="75">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="120">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
@@ -1474,45 +1493,45 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G19" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="24" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -1527,15 +1546,15 @@
         <v>24</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -1550,26 +1569,26 @@
         <v>24</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="135">
       <c r="A25" s="1" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="G25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="75">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="76">
       <c r="A26" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
@@ -1578,61 +1597,61 @@
         <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="I26" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16">
       <c r="A27" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="105">
       <c r="A28" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E28" t="s">
         <v>26</v>
       </c>
       <c r="F28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G28" t="s">
-        <v>119</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="I28" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="90">
       <c r="A29" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
@@ -1647,92 +1666,110 @@
         <v>26</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="90">
       <c r="A30" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="135">
       <c r="A31" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E32" t="s">
         <v>26</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="30">
-      <c r="A36" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="30">
-      <c r="A37" s="8" t="s">
-        <v>112</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="30">
+      <c r="A35" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="27">
+      <c r="A36" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D40:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D39:D1048576">
       <formula1>"行业巨头,大公司,初创,A轮,B轮,C轮,D轮,小公司,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B31 B32:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
       <formula1>"综合,IAAS,PASS,SAAAS,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C31 C32:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>"综合,多媒体,云通信,云安全,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E31 E32:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"美国,中国,欧洲,以色列,印度,日本,韩国,新加坡,澳洲,俄罗斯,东南亚"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D31 D32:D39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D38">
       <formula1>"行业巨头,大公司,初创,A轮,B轮,C轮,D轮,E轮,F轮,刚上市,被收购,小公司,其他"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1769,42 +1806,42 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="20">
       <c r="A7" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="20">
       <c r="A8" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
       <c r="A10" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1833,70 +1870,70 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1924,10 +1961,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1955,10 +1992,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1986,7 +2023,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/云产业企业名录.xlsx
+++ b/云产业企业名录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="云产业公司名目" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="127">
   <si>
     <t>企业名录</t>
   </si>
@@ -586,9 +586,6 @@
 Zang让Avaya进入平台领域：http://www.nojitter.com/post/240171482/avaya-steps-up-its-platform-game</t>
   </si>
   <si>
-    <t>Moxtra</t>
-  </si>
-  <si>
     <t>Population Health</t>
   </si>
   <si>
@@ -709,12 +706,51 @@
   <si>
     <t>https://www.wilddog.com/</t>
   </si>
+  <si>
+    <t>七牛云</t>
+  </si>
+  <si>
+    <t xml:space="preserve">官网：http://www.qiniu.com/
+36氪报道：http://36kr.com/p/5049244.html
+CEO许式伟2015年访谈：http://blog.qiniu.com/archives/1299
+2014年访谈：第一个产品个人网盘的访谈：http://blog.qiniu.com/archives/815
+</t>
+  </si>
+  <si>
+    <t>http://www.qiniu.com/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专注于存储的PAAS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>D轮</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -754,11 +790,6 @@
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF999999"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -802,10 +833,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -817,10 +848,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -1156,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1476,7 +1506,7 @@
     </row>
     <row r="18" spans="1:9" ht="75">
       <c r="A18" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>64</v>
@@ -1577,13 +1607,13 @@
     </row>
     <row r="25" spans="1:9" ht="135">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="76">
@@ -1599,7 +1629,7 @@
       <c r="D26" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F26" t="s">
@@ -1615,43 +1645,64 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16">
-      <c r="A27" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="105">
+    <row r="27" spans="1:9" ht="105">
+      <c r="A27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="90">
       <c r="A28" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="E28" t="s">
         <v>26</v>
       </c>
-      <c r="F28" t="s">
-        <v>114</v>
+      <c r="F28" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="G28" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="90">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
@@ -1665,99 +1716,99 @@
       <c r="E29" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="G29" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="90">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="135">
       <c r="A30" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
         <v>32</v>
       </c>
-      <c r="D30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" t="s">
         <v>26</v>
       </c>
-      <c r="G30" t="s">
-        <v>122</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="135">
-      <c r="A31" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G31" t="s">
-        <v>107</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>106</v>
+      <c r="F31" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="30">
-      <c r="A35" s="8" t="s">
+    <row r="34" spans="1:9" ht="30">
+      <c r="A34" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="27">
+      <c r="A35" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="27">
-      <c r="A36" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+    <row r="36" spans="1:9">
+      <c r="A36" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="105">
       <c r="A37" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" t="s">
+        <v>124</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D39:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38:D1048576">
       <formula1>"行业巨头,大公司,初创,A轮,B轮,C轮,D轮,小公司,其他"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
@@ -1769,7 +1820,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"美国,中国,欧洲,以色列,印度,日本,韩国,新加坡,澳洲,俄罗斯,东南亚"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D37">
       <formula1>"行业巨头,大公司,初创,A轮,B轮,C轮,D轮,E轮,F轮,刚上市,被收购,小公司,其他"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1933,7 +1984,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1992,10 +2043,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2023,7 +2074,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/云产业企业名录.xlsx
+++ b/云产业企业名录.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="130">
   <si>
     <t>企业名录</t>
   </si>
@@ -592,9 +592,6 @@
     <t>健康医疗</t>
   </si>
   <si>
-    <t>宝利通</t>
-  </si>
-  <si>
     <t>保利威视</t>
   </si>
   <si>
@@ -744,6 +741,22 @@
   </si>
   <si>
     <t>D轮</t>
+  </si>
+  <si>
+    <t>http://www.iyiou.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">官网：http://www.polyv.net/
+Pre-A轮融资：http://36kr.com/p/5046878.html
+在线教育风口与保利威视：http://www.cyzone.cn/a/20150722/277649.html
+谢晓昉的视频云：http://it.sohu.com/20160511/n448775269.shtml
+</t>
+  </si>
+  <si>
+    <t>http://www.polyv.net/</t>
+  </si>
+  <si>
+    <t>视频云</t>
   </si>
 </sst>
 </file>
@@ -1184,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1506,7 +1519,7 @@
     </row>
     <row r="18" spans="1:9" ht="75">
       <c r="A18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>64</v>
@@ -1607,13 +1620,13 @@
     </row>
     <row r="25" spans="1:9" ht="135">
       <c r="A25" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="76">
@@ -1650,28 +1663,28 @@
         <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E27" t="s">
         <v>26</v>
       </c>
       <c r="F27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="G27" t="s">
-        <v>115</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="90">
@@ -1691,13 +1704,13 @@
         <v>26</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="90">
@@ -1717,10 +1730,10 @@
         <v>26</v>
       </c>
       <c r="G29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="135">
@@ -1728,18 +1741,18 @@
         <v>88</v>
       </c>
       <c r="G30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" t="s">
         <v>102</v>
-      </c>
-      <c r="B31" t="s">
-        <v>103</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
@@ -1751,77 +1764,90 @@
         <v>26</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="105">
       <c r="A32" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="30">
-      <c r="A34" s="7" t="s">
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>128</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30">
+      <c r="A33" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="27">
+      <c r="A34" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="27">
-      <c r="A35" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+    <row r="35" spans="1:9">
+      <c r="A35" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="105">
       <c r="A36" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="105">
-      <c r="A37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" t="s">
+        <v>123</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="B37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" t="s">
-        <v>126</v>
-      </c>
-      <c r="E37" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G37" t="s">
-        <v>124</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D37:D1048576">
       <formula1>"行业巨头,大公司,初创,A轮,B轮,C轮,D轮,小公司,其他"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
       <formula1>"综合,IAAS,PASS,SAAAS,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
-      <formula1>"综合,多媒体,云通信,云安全,其他"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"美国,中国,欧洲,以色列,印度,日本,韩国,新加坡,澳洲,俄罗斯,东南亚"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D36">
       <formula1>"行业巨头,大公司,初创,A轮,B轮,C轮,D轮,E轮,F轮,刚上市,被收购,小公司,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+      <formula1>"综合,多媒体云,云通信,云安全,视频云,数据云,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1907,10 +1933,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1984,7 +2010,12 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2074,7 +2105,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
